--- a/biology/Zoologie/Callulops_wilhelmanus/Callulops_wilhelmanus.xlsx
+++ b/biology/Zoologie/Callulops_wilhelmanus/Callulops_wilhelmanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callulops wilhelmanus est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callulops wilhelmanus est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Papouasie-Nouvelle-Guinée. Son aire de répartition concerne les régions montagneuses des Hautes-Terres. Elle est présente entre 2 230 et 3 400 m[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Papouasie-Nouvelle-Guinée. Son aire de répartition concerne les régions montagneuses des Hautes-Terres. Elle est présente entre 2 230 et 3 400 m,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Callulops wilhelmanus mesure environ 50 mm. Son dos est gris ardoise et son ventre plus clair.
 </t>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en référence au lieu de sa découverte, le mont Wilhelm.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Loveridge, 1948 : New Guinean Reptiles and Amphibians in the Museum of Comparative Zoölogy and United States National Museum. Bulletin of the Museum of Comparative Zoology at Harvard College, vol. 101, no 2, p. 305-430 (texte intégral).</t>
         </is>
